--- a/backend/data/rankings/offensive_ranks.xlsx
+++ b/backend/data/rankings/offensive_ranks.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -907,7 +907,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -987,7 +987,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -997,7 +997,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -2627,7 +2627,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -2737,7 +2737,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -2747,7 +2747,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -2933,7 +2933,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -2963,7 +2963,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -3023,7 +3023,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -3053,7 +3053,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -3163,7 +3163,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -3203,7 +3203,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -3269,7 +3269,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -3299,7 +3299,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -3339,7 +3339,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -3439,7 +3439,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -3449,7 +3449,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -3499,7 +3499,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -3559,7 +3559,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -3595,7 +3595,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -3605,7 +3605,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -3665,7 +3665,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -3725,7 +3725,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -3735,7 +3735,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -3745,7 +3745,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -3775,7 +3775,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -3815,7 +3815,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -3845,7 +3845,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -3855,7 +3855,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -4021,7 +4021,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -4051,7 +4051,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -4151,7 +4151,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -4241,7 +4241,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -4297,7 +4297,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -4307,7 +4307,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -4347,7 +4347,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -4367,7 +4367,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4387,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -4427,7 +4427,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -4447,7 +4447,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -4457,7 +4457,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -4487,7 +4487,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -4507,7 +4507,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -4517,7 +4517,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -4527,7 +4527,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -4587,7 +4587,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -4643,7 +4643,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -4653,7 +4653,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -4663,7 +4663,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -4673,7 +4673,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -4683,7 +4683,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -4723,7 +4723,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -4753,7 +4753,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -4763,7 +4763,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -4783,7 +4783,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -4793,7 +4793,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -4803,7 +4803,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -4813,7 +4813,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -4823,7 +4823,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -4843,7 +4843,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -4853,7 +4853,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -4863,7 +4863,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -4903,7 +4903,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -4913,7 +4913,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -4923,7 +4923,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -4933,7 +4933,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -5039,7 +5039,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -5059,7 +5059,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -5099,7 +5099,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -5129,7 +5129,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -5139,7 +5139,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -5149,7 +5149,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -5159,7 +5159,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -5179,7 +5179,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -5189,7 +5189,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -5199,7 +5199,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -5219,7 +5219,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -5229,7 +5229,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -5239,7 +5239,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -5249,7 +5249,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -5259,7 +5259,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -5269,7 +5269,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -5279,7 +5279,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -5345,7 +5345,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -5365,7 +5365,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -5375,7 +5375,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -5385,7 +5385,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -5405,7 +5405,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -5415,7 +5415,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -5435,7 +5435,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -5455,7 +5455,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -5465,7 +5465,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -5485,7 +5485,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -5495,7 +5495,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -5505,7 +5505,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -5515,7 +5515,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -5535,7 +5535,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -5545,7 +5545,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -5565,7 +5565,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -5575,7 +5575,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -5595,7 +5595,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -5605,7 +5605,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -5625,7 +5625,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -5691,7 +5691,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -5701,7 +5701,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -5721,7 +5721,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -5741,7 +5741,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -5761,7 +5761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -5771,7 +5771,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -5801,7 +5801,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -5811,7 +5811,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -5821,7 +5821,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -5851,7 +5851,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -5891,7 +5891,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -5901,7 +5901,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -5921,7 +5921,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -5951,7 +5951,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -5971,7 +5971,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -6027,7 +6027,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -6047,7 +6047,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -6057,7 +6057,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -6067,7 +6067,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -6077,7 +6077,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -6087,7 +6087,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -6097,7 +6097,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -6107,7 +6107,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -6127,7 +6127,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -6137,7 +6137,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -6167,7 +6167,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -6177,7 +6177,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -6187,7 +6187,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -6197,7 +6197,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -6207,7 +6207,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -6227,7 +6227,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -6237,7 +6237,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -6247,7 +6247,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -6257,7 +6257,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -6267,7 +6267,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -6287,7 +6287,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -6297,7 +6297,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -6317,7 +6317,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -6403,7 +6403,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -6413,7 +6413,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -6423,7 +6423,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -6443,7 +6443,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -6453,7 +6453,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -6463,7 +6463,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -6473,7 +6473,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -6483,7 +6483,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -6493,7 +6493,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -6503,7 +6503,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -6513,7 +6513,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -6533,7 +6533,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -6543,7 +6543,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -6563,7 +6563,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -6583,7 +6583,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -6593,7 +6593,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -6603,7 +6603,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -6613,7 +6613,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -6623,7 +6623,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -6643,7 +6643,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -6653,7 +6653,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -6663,7 +6663,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -6719,7 +6719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -6749,7 +6749,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -6759,7 +6759,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -6769,7 +6769,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -6779,7 +6779,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -6789,7 +6789,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -6799,7 +6799,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -6809,7 +6809,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -6819,7 +6819,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -6839,7 +6839,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -6849,7 +6849,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -6859,7 +6859,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -6869,7 +6869,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -6879,7 +6879,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -6899,7 +6899,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -6909,7 +6909,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -6919,7 +6919,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -6929,7 +6929,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -6949,7 +6949,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -6959,7 +6959,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -6969,7 +6969,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -6979,7 +6979,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -6999,7 +6999,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -7009,7 +7009,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -7019,7 +7019,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -7065,7 +7065,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -7085,7 +7085,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -7095,7 +7095,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -7115,7 +7115,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -7125,7 +7125,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -7135,7 +7135,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -7145,7 +7145,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -7165,7 +7165,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -7175,7 +7175,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -7185,7 +7185,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -7195,7 +7195,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -7205,7 +7205,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -7215,7 +7215,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -7225,7 +7225,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -7245,7 +7245,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -7265,7 +7265,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -7275,7 +7275,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -7295,7 +7295,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -7305,7 +7305,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -7325,7 +7325,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -7335,7 +7335,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -7345,7 +7345,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -7355,7 +7355,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -7401,7 +7401,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -7411,7 +7411,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -7431,7 +7431,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -7441,7 +7441,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -7451,7 +7451,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -7461,7 +7461,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -7471,7 +7471,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -7481,7 +7481,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -7491,7 +7491,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -7501,7 +7501,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -7531,7 +7531,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -7541,7 +7541,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -7551,7 +7551,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -7571,7 +7571,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -7581,7 +7581,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -7591,7 +7591,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -7601,7 +7601,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7611,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -7621,7 +7621,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -7641,7 +7641,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -7651,7 +7651,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -7661,7 +7661,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -7671,7 +7671,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -7681,7 +7681,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -7691,7 +7691,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -7701,7 +7701,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -7757,7 +7757,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -7767,7 +7767,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -7777,7 +7777,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -7787,7 +7787,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -7797,7 +7797,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -7807,7 +7807,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -7817,7 +7817,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -7827,7 +7827,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -7837,7 +7837,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -7847,7 +7847,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -7857,7 +7857,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -7867,7 +7867,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -7877,7 +7877,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -7887,7 +7887,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -7907,7 +7907,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -7917,7 +7917,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -7927,7 +7927,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -7937,7 +7937,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -7947,7 +7947,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -7957,7 +7957,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -7967,7 +7967,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -7977,7 +7977,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -7987,7 +7987,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -7997,7 +7997,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -8007,7 +8007,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -8017,7 +8017,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -8037,7 +8037,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -8057,7 +8057,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -8093,7 +8093,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -8113,7 +8113,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -8123,7 +8123,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -8133,7 +8133,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -8143,7 +8143,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -8153,7 +8153,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -8163,7 +8163,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -8173,7 +8173,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -8183,7 +8183,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -8203,7 +8203,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -8223,7 +8223,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -8243,7 +8243,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -8253,7 +8253,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -8263,7 +8263,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -8273,7 +8273,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -8283,7 +8283,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -8293,7 +8293,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -8303,7 +8303,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -8313,7 +8313,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -8323,7 +8323,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -8333,7 +8333,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -8343,7 +8343,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -8353,7 +8353,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -8363,7 +8363,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -8373,7 +8373,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -8403,7 +8403,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -8449,7 +8449,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -8469,7 +8469,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -8489,7 +8489,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -8499,7 +8499,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -8509,7 +8509,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -8529,7 +8529,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -8549,7 +8549,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -8559,7 +8559,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -8569,7 +8569,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -8579,7 +8579,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -8589,7 +8589,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -8619,7 +8619,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -8629,7 +8629,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -8649,7 +8649,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -8659,7 +8659,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -8679,7 +8679,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -8699,7 +8699,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -8709,7 +8709,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -8719,7 +8719,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -8729,7 +8729,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -8739,7 +8739,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -8785,7 +8785,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -8795,7 +8795,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -8805,7 +8805,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -8815,7 +8815,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -8825,7 +8825,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -8835,7 +8835,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -8855,7 +8855,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -8865,7 +8865,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -8875,7 +8875,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -8885,7 +8885,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -8895,7 +8895,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -8915,7 +8915,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -8925,7 +8925,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -8935,7 +8935,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -8955,7 +8955,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -8965,7 +8965,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -8975,7 +8975,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -8985,7 +8985,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -8995,7 +8995,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -9005,7 +9005,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -9015,7 +9015,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -9025,7 +9025,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -9035,7 +9035,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -9045,7 +9045,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -9055,7 +9055,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -9075,7 +9075,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -9141,7 +9141,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -9151,7 +9151,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -9161,7 +9161,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -9171,7 +9171,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -9181,7 +9181,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -9191,7 +9191,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -9201,7 +9201,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -9211,7 +9211,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -9231,7 +9231,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -9251,7 +9251,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -9271,7 +9271,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -9281,7 +9281,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -9291,7 +9291,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -9301,7 +9301,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -9311,7 +9311,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -9331,7 +9331,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -9341,7 +9341,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -9351,7 +9351,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -9361,7 +9361,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -9371,7 +9371,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -9401,7 +9401,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -9411,7 +9411,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -9431,7 +9431,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -9497,7 +9497,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -9507,7 +9507,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -9517,7 +9517,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -9527,7 +9527,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -9537,7 +9537,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -9557,7 +9557,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -9567,7 +9567,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -9577,7 +9577,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -9587,7 +9587,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -9597,7 +9597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -9617,7 +9617,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -9627,7 +9627,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -9637,7 +9637,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -9647,7 +9647,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -9657,7 +9657,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -9667,7 +9667,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -9677,7 +9677,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -9687,7 +9687,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -9697,7 +9697,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -9707,7 +9707,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -9717,7 +9717,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -9737,7 +9737,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -9747,7 +9747,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -9757,7 +9757,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -9767,7 +9767,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -9843,7 +9843,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -9853,7 +9853,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -9873,7 +9873,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -9883,7 +9883,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -9893,7 +9893,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -9903,7 +9903,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -9913,7 +9913,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -9923,7 +9923,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -9933,7 +9933,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -9943,7 +9943,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -9953,7 +9953,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -9963,7 +9963,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -9973,7 +9973,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -9983,7 +9983,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -9993,7 +9993,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -10003,7 +10003,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -10013,7 +10013,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -10023,7 +10023,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -10033,7 +10033,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -10043,7 +10043,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -10053,7 +10053,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -10063,7 +10063,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -10073,7 +10073,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -10083,7 +10083,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -10093,7 +10093,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -10123,7 +10123,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -10133,7 +10133,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -10169,7 +10169,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -10189,7 +10189,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -10199,7 +10199,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -10209,7 +10209,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -10219,7 +10219,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -10229,7 +10229,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -10239,7 +10239,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -10259,7 +10259,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -10269,7 +10269,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -10279,7 +10279,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -10289,7 +10289,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -10299,7 +10299,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -10309,7 +10309,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -10329,7 +10329,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -10339,7 +10339,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -10349,7 +10349,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -10369,7 +10369,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -10379,7 +10379,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -10389,7 +10389,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -10399,7 +10399,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -10409,7 +10409,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -10419,7 +10419,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -10429,7 +10429,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -10439,7 +10439,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -10449,7 +10449,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -10459,7 +10459,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -10469,7 +10469,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -10535,7 +10535,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -10555,7 +10555,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -10565,7 +10565,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -10575,7 +10575,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -10585,7 +10585,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -10595,7 +10595,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -10615,7 +10615,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -10625,7 +10625,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -10635,7 +10635,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -10655,7 +10655,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -10665,7 +10665,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -10675,7 +10675,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -10685,7 +10685,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -10695,7 +10695,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -10705,7 +10705,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -10715,7 +10715,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -10725,7 +10725,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -10735,7 +10735,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -10755,7 +10755,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -10775,7 +10775,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -10785,7 +10785,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -10795,7 +10795,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -10805,7 +10805,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -10871,7 +10871,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -10881,7 +10881,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -10891,7 +10891,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -10901,7 +10901,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -10911,7 +10911,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -10931,7 +10931,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -10941,7 +10941,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -10961,7 +10961,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -10971,7 +10971,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -10981,7 +10981,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -10991,7 +10991,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -11001,7 +11001,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -11011,7 +11011,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -11021,7 +11021,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -11031,7 +11031,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -11041,7 +11041,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -11071,7 +11071,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -11081,7 +11081,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -11101,7 +11101,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -11111,7 +11111,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -11121,7 +11121,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -11131,7 +11131,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -11151,7 +11151,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -11217,7 +11217,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -11227,7 +11227,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -11237,7 +11237,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -11247,7 +11247,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -11267,7 +11267,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -11277,7 +11277,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -11287,7 +11287,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -11297,7 +11297,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -11307,7 +11307,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -11317,7 +11317,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -11327,7 +11327,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -11347,7 +11347,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -11357,7 +11357,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -11367,7 +11367,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -11377,7 +11377,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -11387,7 +11387,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -11397,7 +11397,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -11407,7 +11407,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -11427,7 +11427,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -11437,7 +11437,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -11447,7 +11447,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -11457,7 +11457,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -11467,7 +11467,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -11477,7 +11477,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -11487,7 +11487,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -11517,7 +11517,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -11563,7 +11563,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -11573,7 +11573,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -11583,7 +11583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -11603,7 +11603,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -11613,7 +11613,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -11623,7 +11623,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -11633,7 +11633,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -11643,7 +11643,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -11653,7 +11653,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -11663,7 +11663,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -11673,7 +11673,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -11683,7 +11683,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -11693,7 +11693,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -11703,7 +11703,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -11713,7 +11713,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -11723,7 +11723,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -11733,7 +11733,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -11743,7 +11743,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -11753,7 +11753,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -11763,7 +11763,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -11773,7 +11773,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -11783,7 +11783,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -11793,7 +11793,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -11803,7 +11803,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -11813,7 +11813,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -11843,7 +11843,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -11853,7 +11853,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -11863,7 +11863,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -11919,7 +11919,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -11939,7 +11939,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -11949,7 +11949,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -11959,7 +11959,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -11969,7 +11969,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -11979,7 +11979,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -11989,7 +11989,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -11999,7 +11999,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -12009,7 +12009,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -12019,7 +12019,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -12029,7 +12029,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -12039,7 +12039,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -12049,7 +12049,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -12059,7 +12059,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -12079,7 +12079,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -12089,7 +12089,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -12099,7 +12099,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -12109,7 +12109,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -12129,7 +12129,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -12139,7 +12139,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -12149,7 +12149,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -12179,7 +12179,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -12189,7 +12189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -12199,7 +12199,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -12245,7 +12245,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -12255,7 +12255,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -12275,7 +12275,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -12285,7 +12285,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -12295,7 +12295,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -12305,7 +12305,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -12325,7 +12325,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -12335,7 +12335,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -12345,7 +12345,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -12355,7 +12355,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -12365,7 +12365,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -12375,7 +12375,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -12385,7 +12385,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -12395,7 +12395,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -12405,7 +12405,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -12415,7 +12415,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -12425,7 +12425,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -12435,7 +12435,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -12445,7 +12445,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -12455,7 +12455,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -12465,7 +12465,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -12475,7 +12475,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -12495,7 +12495,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -12505,7 +12505,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -12515,7 +12515,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -12535,7 +12535,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -12545,7 +12545,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -12555,7 +12555,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -12591,7 +12591,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -12601,7 +12601,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -12611,7 +12611,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -12621,7 +12621,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -12631,7 +12631,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -12651,7 +12651,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -12661,7 +12661,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -12681,7 +12681,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -12691,7 +12691,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -12701,7 +12701,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -12711,7 +12711,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -12721,7 +12721,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -12731,7 +12731,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -12741,7 +12741,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -12751,7 +12751,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -12761,7 +12761,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -12771,7 +12771,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -12781,7 +12781,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -12791,7 +12791,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -12801,7 +12801,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -12811,7 +12811,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -12821,7 +12821,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -12831,7 +12831,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -12841,7 +12841,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -12851,7 +12851,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -12861,7 +12861,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -12881,7 +12881,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -12891,7 +12891,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>

--- a/backend/data/rankings/offensive_ranks.xlsx
+++ b/backend/data/rankings/offensive_ranks.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -987,7 +987,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -997,7 +997,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -2627,7 +2627,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -2737,7 +2737,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -2747,7 +2747,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -2933,7 +2933,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -2963,7 +2963,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -3023,7 +3023,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -3053,7 +3053,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -3163,7 +3163,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -3203,7 +3203,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -3269,7 +3269,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -3299,7 +3299,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -3339,7 +3339,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -3439,7 +3439,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -3449,7 +3449,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -3499,7 +3499,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -3595,7 +3595,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -3605,7 +3605,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -3665,7 +3665,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -3725,7 +3725,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -3735,7 +3735,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -3745,7 +3745,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -3775,7 +3775,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -3815,7 +3815,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -3845,7 +3845,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -3855,7 +3855,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -3941,7 +3941,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -4021,7 +4021,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -4051,7 +4051,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -4151,7 +4151,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -4241,7 +4241,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -4297,7 +4297,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -4307,7 +4307,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -4347,7 +4347,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -4367,7 +4367,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4387,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -4447,7 +4447,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -4457,7 +4457,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -4487,7 +4487,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -4507,7 +4507,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -4517,7 +4517,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -4527,7 +4527,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -4597,7 +4597,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -4663,7 +4663,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -4673,7 +4673,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -4683,7 +4683,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -4693,7 +4693,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -4703,7 +4703,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -4723,7 +4723,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -4733,7 +4733,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -4743,7 +4743,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -4753,7 +4753,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -4763,7 +4763,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -4773,7 +4773,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -4783,7 +4783,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -4793,7 +4793,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -4803,7 +4803,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -4813,7 +4813,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -4823,7 +4823,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -4843,7 +4843,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -4853,7 +4853,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -4863,7 +4863,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -4883,7 +4883,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -4903,7 +4903,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -4913,7 +4913,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -4923,7 +4923,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -4933,7 +4933,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -4979,7 +4979,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -5019,7 +5019,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -5029,7 +5029,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -5039,7 +5039,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -5059,7 +5059,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -5099,7 +5099,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -5119,7 +5119,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -5129,7 +5129,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -5139,7 +5139,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -5149,7 +5149,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -5159,7 +5159,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -5179,7 +5179,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -5189,7 +5189,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -5199,7 +5199,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -5219,7 +5219,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -5229,7 +5229,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -5239,7 +5239,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -5249,7 +5249,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -5259,7 +5259,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -5279,7 +5279,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -5345,7 +5345,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -5385,7 +5385,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -5415,7 +5415,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -5425,7 +5425,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -5435,7 +5435,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -5455,7 +5455,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -5465,7 +5465,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -5485,7 +5485,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -5495,7 +5495,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -5505,7 +5505,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -5515,7 +5515,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -5535,7 +5535,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -5545,7 +5545,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -5565,7 +5565,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -5575,7 +5575,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -5595,7 +5595,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -5605,7 +5605,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -5625,7 +5625,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -5671,7 +5671,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -5691,7 +5691,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -5701,7 +5701,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -5721,7 +5721,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -5741,7 +5741,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -5761,7 +5761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -5771,7 +5771,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -5801,7 +5801,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -5811,7 +5811,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -5821,7 +5821,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -5851,7 +5851,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -5891,7 +5891,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -5901,7 +5901,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -5911,7 +5911,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -5921,7 +5921,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -5931,7 +5931,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -5951,7 +5951,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -5971,7 +5971,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -5981,7 +5981,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -6017,7 +6017,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -6027,7 +6027,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -6037,7 +6037,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -6057,7 +6057,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -6077,7 +6077,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -6087,7 +6087,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -6097,7 +6097,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -6107,7 +6107,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -6127,7 +6127,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -6137,7 +6137,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -6147,7 +6147,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -6167,7 +6167,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -6177,7 +6177,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -6187,7 +6187,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -6197,7 +6197,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -6207,7 +6207,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -6227,7 +6227,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -6237,7 +6237,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -6247,7 +6247,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -6257,7 +6257,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -6267,7 +6267,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -6287,7 +6287,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -6297,7 +6297,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -6317,7 +6317,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -6327,7 +6327,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -6363,7 +6363,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -6383,7 +6383,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -6393,7 +6393,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -6403,7 +6403,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -6413,7 +6413,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -6423,7 +6423,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -6453,7 +6453,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -6463,7 +6463,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -6473,7 +6473,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -6483,7 +6483,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -6493,7 +6493,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -6503,7 +6503,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -6513,7 +6513,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -6523,7 +6523,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -6533,7 +6533,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -6543,7 +6543,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -6563,7 +6563,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -6583,7 +6583,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -6593,7 +6593,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -6603,7 +6603,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -6613,7 +6613,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -6633,7 +6633,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -6643,7 +6643,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -6653,7 +6653,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -6663,7 +6663,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -6673,7 +6673,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -6719,7 +6719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -6739,7 +6739,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -6749,7 +6749,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -6759,7 +6759,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -6769,7 +6769,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -6779,7 +6779,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -6789,7 +6789,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -6799,7 +6799,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -6809,7 +6809,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -6819,7 +6819,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -6839,7 +6839,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -6849,7 +6849,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -6859,7 +6859,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -6869,7 +6869,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -6879,7 +6879,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -6899,7 +6899,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -6909,7 +6909,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -6919,7 +6919,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -6929,7 +6929,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -6949,7 +6949,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -6959,7 +6959,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -6969,7 +6969,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -6979,7 +6979,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -6999,7 +6999,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -7009,7 +7009,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -7019,7 +7019,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -7065,7 +7065,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -7085,7 +7085,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -7095,7 +7095,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -7115,7 +7115,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -7135,7 +7135,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -7145,7 +7145,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -7165,7 +7165,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -7175,7 +7175,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -7185,7 +7185,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -7195,7 +7195,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -7205,7 +7205,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -7215,7 +7215,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -7225,7 +7225,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -7245,7 +7245,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -7265,7 +7265,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -7275,7 +7275,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -7285,7 +7285,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -7295,7 +7295,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -7305,7 +7305,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -7315,7 +7315,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -7325,7 +7325,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -7335,7 +7335,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -7345,7 +7345,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -7355,7 +7355,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -7365,7 +7365,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -7401,7 +7401,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -7421,7 +7421,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -7431,7 +7431,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -7441,7 +7441,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -7451,7 +7451,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -7461,7 +7461,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -7471,7 +7471,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -7481,7 +7481,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -7491,7 +7491,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -7501,7 +7501,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -7531,7 +7531,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -7541,7 +7541,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -7551,7 +7551,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -7571,7 +7571,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -7581,7 +7581,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -7591,7 +7591,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -7601,7 +7601,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7611,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -7621,7 +7621,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -7641,7 +7641,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -7651,7 +7651,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -7661,7 +7661,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -7671,7 +7671,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -7681,7 +7681,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -7691,7 +7691,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -7701,7 +7701,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -7711,7 +7711,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -7747,7 +7747,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -7757,7 +7757,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -7767,7 +7767,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -7777,7 +7777,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -7797,7 +7797,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -7807,7 +7807,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -7817,7 +7817,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -7827,7 +7827,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -7837,7 +7837,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -7847,7 +7847,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -7857,7 +7857,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -7867,7 +7867,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -7877,7 +7877,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -7887,7 +7887,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -7907,7 +7907,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -7917,7 +7917,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -7927,7 +7927,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -7937,7 +7937,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -7947,7 +7947,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -7957,7 +7957,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -7967,7 +7967,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -7977,7 +7977,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -7987,7 +7987,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -7997,7 +7997,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -8007,7 +8007,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -8017,7 +8017,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -8027,7 +8027,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -8047,7 +8047,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -8057,7 +8057,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -8093,7 +8093,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -8113,7 +8113,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -8123,7 +8123,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -8143,7 +8143,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -8153,7 +8153,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -8163,7 +8163,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -8173,7 +8173,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -8183,7 +8183,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -8193,7 +8193,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -8203,7 +8203,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -8213,7 +8213,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -8223,7 +8223,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -8243,7 +8243,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -8253,7 +8253,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -8263,7 +8263,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -8273,7 +8273,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -8283,7 +8283,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -8293,7 +8293,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -8303,7 +8303,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -8323,7 +8323,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -8333,7 +8333,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -8343,7 +8343,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -8353,7 +8353,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -8363,7 +8363,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -8373,7 +8373,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -8383,7 +8383,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -8403,7 +8403,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -8449,7 +8449,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -8459,7 +8459,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -8469,7 +8469,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -8479,7 +8479,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -8489,7 +8489,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -8499,7 +8499,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -8509,7 +8509,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -8519,7 +8519,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -8529,7 +8529,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -8539,7 +8539,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -8549,7 +8549,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -8559,7 +8559,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -8569,7 +8569,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -8579,7 +8579,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -8589,7 +8589,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -8599,7 +8599,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -8609,7 +8609,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -8619,7 +8619,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -8639,7 +8639,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -8649,7 +8649,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -8659,7 +8659,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -8679,7 +8679,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -8699,7 +8699,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -8709,7 +8709,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -8719,7 +8719,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -8739,7 +8739,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -8749,7 +8749,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -8785,7 +8785,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -8795,7 +8795,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -8805,7 +8805,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -8815,7 +8815,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -8825,7 +8825,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -8835,7 +8835,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -8845,7 +8845,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -8855,7 +8855,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -8865,7 +8865,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -8875,7 +8875,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -8885,7 +8885,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -8895,7 +8895,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -8915,7 +8915,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -8925,7 +8925,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -8935,7 +8935,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -8955,7 +8955,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -8965,7 +8965,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -8975,7 +8975,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -8985,7 +8985,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -8995,7 +8995,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -9005,7 +9005,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -9015,7 +9015,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -9025,7 +9025,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -9035,7 +9035,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -9045,7 +9045,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -9055,7 +9055,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -9065,7 +9065,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -9075,7 +9075,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -9095,7 +9095,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -9131,7 +9131,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -9141,7 +9141,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -9151,7 +9151,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -9161,7 +9161,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -9181,7 +9181,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -9191,7 +9191,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -9201,7 +9201,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -9211,7 +9211,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -9231,7 +9231,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -9251,7 +9251,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -9271,7 +9271,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -9281,7 +9281,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -9291,7 +9291,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -9301,7 +9301,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -9311,7 +9311,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -9321,7 +9321,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -9331,7 +9331,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -9341,7 +9341,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -9351,7 +9351,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -9371,7 +9371,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -9401,7 +9401,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -9411,7 +9411,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -9421,7 +9421,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -9431,7 +9431,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -9441,7 +9441,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -9497,7 +9497,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -9517,7 +9517,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -9547,7 +9547,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -9557,7 +9557,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -9567,7 +9567,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -9577,7 +9577,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -9587,7 +9587,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -9597,7 +9597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -9607,7 +9607,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -9617,7 +9617,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -9627,7 +9627,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -9637,7 +9637,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -9647,7 +9647,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -9657,7 +9657,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -9667,7 +9667,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -9677,7 +9677,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -9687,7 +9687,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -9697,7 +9697,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -9707,7 +9707,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -9717,7 +9717,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -9737,7 +9737,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -9747,7 +9747,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -9757,7 +9757,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -9767,7 +9767,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -9777,7 +9777,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -9787,7 +9787,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -9823,7 +9823,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -9833,7 +9833,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -9843,7 +9843,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -9853,7 +9853,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -9863,7 +9863,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -9873,7 +9873,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -9883,7 +9883,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -9893,7 +9893,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -9903,7 +9903,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -9913,7 +9913,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -9933,7 +9933,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -9943,7 +9943,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -9953,7 +9953,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -9963,7 +9963,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -9983,7 +9983,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -9993,7 +9993,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -10003,7 +10003,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -10013,7 +10013,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -10023,7 +10023,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -10033,7 +10033,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -10043,7 +10043,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -10053,7 +10053,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -10063,7 +10063,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -10073,7 +10073,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -10083,7 +10083,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -10093,7 +10093,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -10103,7 +10103,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -10113,7 +10113,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -10169,7 +10169,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -10179,7 +10179,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -10189,7 +10189,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -10199,7 +10199,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -10209,7 +10209,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -10219,7 +10219,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -10229,7 +10229,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -10259,7 +10259,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -10269,7 +10269,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -10279,7 +10279,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -10289,7 +10289,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -10299,7 +10299,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -10309,7 +10309,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -10329,7 +10329,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -10339,7 +10339,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -10349,7 +10349,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -10359,7 +10359,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -10369,7 +10369,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -10379,7 +10379,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -10389,7 +10389,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -10399,7 +10399,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -10409,7 +10409,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -10419,7 +10419,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -10429,7 +10429,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -10439,7 +10439,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -10449,7 +10449,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -10469,7 +10469,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -10479,7 +10479,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -10515,7 +10515,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -10525,7 +10525,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -10535,7 +10535,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -10545,7 +10545,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -10555,7 +10555,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -10565,7 +10565,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -10575,7 +10575,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -10585,7 +10585,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -10595,7 +10595,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -10605,7 +10605,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -10625,7 +10625,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -10635,7 +10635,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -10645,7 +10645,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -10655,7 +10655,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -10665,7 +10665,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -10675,7 +10675,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -10685,7 +10685,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -10695,7 +10695,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -10705,7 +10705,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -10715,7 +10715,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -10725,7 +10725,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -10735,7 +10735,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -10745,7 +10745,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -10755,7 +10755,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -10765,7 +10765,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -10775,7 +10775,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -10785,7 +10785,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -10795,7 +10795,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -10805,7 +10805,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -10815,7 +10815,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -10861,7 +10861,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -10871,7 +10871,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -10881,7 +10881,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -10891,7 +10891,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -10901,7 +10901,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -10911,7 +10911,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -10931,7 +10931,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -10941,7 +10941,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -10951,7 +10951,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -10961,7 +10961,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -10971,7 +10971,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -10981,7 +10981,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -10991,7 +10991,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -11001,7 +11001,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -11011,7 +11011,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -11021,7 +11021,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -11031,7 +11031,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -11041,7 +11041,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -11051,7 +11051,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -11071,7 +11071,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -11081,7 +11081,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -11091,7 +11091,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -11101,7 +11101,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -11111,7 +11111,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -11131,7 +11131,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -11141,7 +11141,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -11151,7 +11151,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -11171,7 +11171,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -11207,7 +11207,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -11217,7 +11217,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -11227,7 +11227,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -11237,7 +11237,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -11247,7 +11247,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -11267,7 +11267,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -11277,7 +11277,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -11287,7 +11287,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -11297,7 +11297,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -11307,7 +11307,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -11317,7 +11317,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -11347,7 +11347,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -11357,7 +11357,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -11367,7 +11367,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -11377,7 +11377,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -11387,7 +11387,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -11397,7 +11397,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -11407,7 +11407,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -11427,7 +11427,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -11437,7 +11437,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -11447,7 +11447,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -11457,7 +11457,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -11467,7 +11467,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -11477,7 +11477,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -11487,7 +11487,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -11507,7 +11507,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -11517,7 +11517,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -11563,7 +11563,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -11573,7 +11573,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -11603,7 +11603,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -11613,7 +11613,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -11623,7 +11623,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -11633,7 +11633,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -11643,7 +11643,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -11653,7 +11653,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -11663,7 +11663,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -11673,7 +11673,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -11683,7 +11683,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -11693,7 +11693,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -11703,7 +11703,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -11713,7 +11713,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -11723,7 +11723,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -11733,7 +11733,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -11743,7 +11743,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -11753,7 +11753,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -11763,7 +11763,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -11773,7 +11773,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -11783,7 +11783,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -11793,7 +11793,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -11803,7 +11803,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -11813,7 +11813,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -11823,7 +11823,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -11843,7 +11843,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -11853,7 +11853,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -11863,7 +11863,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -11909,7 +11909,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -11919,7 +11919,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -11939,7 +11939,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -11949,7 +11949,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -11959,7 +11959,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -11969,7 +11969,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -11979,7 +11979,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -11989,7 +11989,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -12009,7 +12009,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -12019,7 +12019,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -12029,7 +12029,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -12039,7 +12039,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -12049,7 +12049,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -12059,7 +12059,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -12079,7 +12079,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -12089,7 +12089,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -12099,7 +12099,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -12109,7 +12109,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -12119,7 +12119,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -12129,7 +12129,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -12139,7 +12139,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -12149,7 +12149,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -12159,7 +12159,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -12179,7 +12179,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -12189,7 +12189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -12199,7 +12199,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -12209,7 +12209,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -12255,7 +12255,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -12265,7 +12265,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -12275,7 +12275,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -12285,7 +12285,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -12295,7 +12295,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -12305,7 +12305,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -12315,7 +12315,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -12325,7 +12325,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -12335,7 +12335,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -12345,7 +12345,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -12355,7 +12355,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -12365,7 +12365,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -12375,7 +12375,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -12385,7 +12385,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -12395,7 +12395,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -12405,7 +12405,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -12415,7 +12415,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -12425,7 +12425,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -12435,7 +12435,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -12445,7 +12445,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -12455,7 +12455,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -12465,7 +12465,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -12475,7 +12475,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -12495,7 +12495,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -12505,7 +12505,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -12515,7 +12515,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -12525,7 +12525,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -12535,7 +12535,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -12545,7 +12545,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -12555,7 +12555,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -12601,7 +12601,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -12611,7 +12611,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -12621,7 +12621,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -12631,7 +12631,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -12651,7 +12651,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -12661,7 +12661,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -12671,7 +12671,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -12681,7 +12681,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -12701,7 +12701,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -12711,7 +12711,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -12721,7 +12721,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -12731,7 +12731,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -12741,7 +12741,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -12751,7 +12751,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -12761,7 +12761,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -12771,7 +12771,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -12781,7 +12781,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -12791,7 +12791,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -12801,7 +12801,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -12811,7 +12811,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -12821,7 +12821,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -12831,7 +12831,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -12841,7 +12841,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -12851,7 +12851,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -12861,7 +12861,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -12871,7 +12871,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -12881,7 +12881,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -12891,7 +12891,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
